--- a/Templates/Sample_Test Cases.xlsx
+++ b/Templates/Sample_Test Cases.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\SWT301\Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="13560" tabRatio="837" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14832" windowHeight="13560" tabRatio="837" firstSheet="10" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -34,7 +39,7 @@
     <definedName name="OLE_LINK43">'Home page'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Test report'!$A$1:$P$27</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -44,7 +49,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E11" authorId="0">
+    <comment ref="E11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +123,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +223,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -236,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -272,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -290,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -318,7 +323,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -354,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -372,7 +377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -390,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -418,7 +423,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -436,7 +441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -454,7 +459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -472,7 +477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -518,7 +523,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -536,7 +541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -554,7 +559,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -572,7 +577,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -590,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -618,7 +623,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -636,7 +641,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -654,7 +659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -672,7 +677,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -690,7 +695,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -718,7 +723,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -736,7 +741,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -754,7 +759,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -772,7 +777,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -790,7 +795,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -818,7 +823,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -836,7 +841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -854,7 +859,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -872,7 +877,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -890,7 +895,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -918,7 +923,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -936,7 +941,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -954,7 +959,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -972,7 +977,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -990,7 +995,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1018,7 +1023,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1036,7 +1041,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1054,7 +1059,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1072,7 +1077,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1090,7 +1095,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1118,7 +1123,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1136,7 +1141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1154,7 +1159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1172,7 +1177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1190,7 +1195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1218,7 +1223,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1236,7 +1241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1254,7 +1259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1272,7 +1277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1290,7 +1295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1318,7 +1323,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1336,7 +1341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1354,7 +1359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1372,7 +1377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1390,7 +1395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1418,7 +1423,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1436,7 +1441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1454,7 +1459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1472,7 +1477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1490,7 +1495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6747,6 +6752,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -7208,15 +7216,15 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7353,7 +7361,7 @@
       </c>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" s="16" customFormat="1" ht="189">
+    <row r="14" spans="1:7" s="16" customFormat="1" ht="193.8">
       <c r="B14" s="17">
         <v>40798</v>
       </c>
@@ -7385,7 +7393,7 @@
       </c>
       <c r="G15" s="54"/>
     </row>
-    <row r="16" spans="1:7" s="16" customFormat="1" ht="52.5">
+    <row r="16" spans="1:7" s="16" customFormat="1" ht="51">
       <c r="B16" s="17">
         <v>40823</v>
       </c>
@@ -7536,19 +7544,19 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="22.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="17.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7656,7 +7664,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="105">
+    <row r="5" spans="1:13" ht="102">
       <c r="A5" s="60" t="str">
         <f t="shared" ref="A5:A29" si="0">IF(OR(B5&lt;&gt;"",E5&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Change Password-1]</v>
@@ -7696,7 +7704,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="52.5">
+    <row r="6" spans="1:13" ht="61.2">
       <c r="A6" s="52" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Change Password-2]</v>
@@ -7736,7 +7744,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="52.5">
+    <row r="7" spans="1:13" ht="61.2">
       <c r="A7" s="52" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Change Password-3]</v>
@@ -7776,7 +7784,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="52.5">
+    <row r="8" spans="1:13" ht="61.2">
       <c r="A8" s="52" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Change Password-4]</v>
@@ -7816,7 +7824,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="52.5">
+    <row r="9" spans="1:13" ht="61.2">
       <c r="A9" s="52" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Change Password-5]</v>
@@ -7858,7 +7866,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="42">
+    <row r="10" spans="1:13" ht="40.799999999999997">
       <c r="A10" s="52" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Change Password-6]</v>
@@ -7898,7 +7906,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="42">
+    <row r="11" spans="1:13" ht="40.799999999999997">
       <c r="A11" s="52" t="str">
         <f>IF(OR(B11&lt;&gt;"",E11&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Change Password-7]</v>
@@ -7938,7 +7946,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="42">
+    <row r="12" spans="1:13" ht="40.799999999999997">
       <c r="A12" s="52" t="str">
         <f>IF(OR(B12&lt;&gt;"",E12&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Change Password-8]</v>
@@ -7978,7 +7986,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="63">
+    <row r="13" spans="1:13" ht="61.2">
       <c r="A13" s="52" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Change Password-9]</v>
@@ -8018,7 +8026,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="52.5">
+    <row r="14" spans="1:13" ht="61.2">
       <c r="A14" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Change Password-10]</v>
@@ -8056,7 +8064,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="31.5">
+    <row r="15" spans="1:13" ht="30.6">
       <c r="A15" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Change Password-11]</v>
@@ -8094,7 +8102,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="84">
+    <row r="16" spans="1:13" ht="81.599999999999994">
       <c r="A16" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Change Password-12]</v>
@@ -8132,7 +8140,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="42">
+    <row r="17" spans="1:13" ht="40.799999999999997">
       <c r="A17" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Change Password-13]</v>
@@ -8170,7 +8178,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="94.5">
+    <row r="18" spans="1:13" ht="91.8">
       <c r="A18" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Change Password-14]</v>
@@ -8210,7 +8218,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="42">
+    <row r="19" spans="1:13" ht="40.799999999999997">
       <c r="A19" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Change Password-15]</v>
@@ -8250,7 +8258,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="63">
+    <row r="20" spans="1:13" ht="61.2">
       <c r="A20" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Change Password-16]</v>
@@ -8288,7 +8296,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="31.5">
+    <row r="21" spans="1:13" ht="30.6">
       <c r="A21" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Change Password-17]</v>
@@ -8326,7 +8334,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="31.5">
+    <row r="22" spans="1:13" ht="30.6">
       <c r="A22" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Change Password-18]</v>
@@ -8364,7 +8372,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="42">
+    <row r="23" spans="1:13" ht="40.799999999999997">
       <c r="A23" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Change Password-19]</v>
@@ -8402,7 +8410,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="42">
+    <row r="24" spans="1:13" ht="40.799999999999997">
       <c r="A24" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Change Password-20]</v>
@@ -8442,7 +8450,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="42">
+    <row r="25" spans="1:13" ht="40.799999999999997">
       <c r="A25" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Change Password-21]</v>
@@ -8478,7 +8486,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="52.5">
+    <row r="26" spans="1:13" ht="61.2">
       <c r="A26" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Change Password-22]</v>
@@ -8514,7 +8522,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="52.5">
+    <row r="27" spans="1:13" ht="51">
       <c r="A27" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Change Password-23]</v>
@@ -8550,7 +8558,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="52.5">
+    <row r="28" spans="1:13" ht="51">
       <c r="A28" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Change Password-24]</v>
@@ -8586,7 +8594,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="52.5">
+    <row r="29" spans="1:13" ht="51">
       <c r="A29" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Change Password-25]</v>
@@ -8651,19 +8659,19 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="22.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="33" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="17.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -8811,7 +8819,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="42">
+    <row r="6" spans="1:13" ht="40.799999999999997">
       <c r="A6" s="52" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Profile-2]</v>
@@ -8851,7 +8859,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="42">
+    <row r="7" spans="1:13" ht="40.799999999999997">
       <c r="A7" s="52" t="str">
         <f>IF(OR(B7&lt;&gt;"",E7&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Create Profile-3]</v>
@@ -8891,7 +8899,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="42">
+    <row r="8" spans="1:13" ht="51">
       <c r="A8" s="52" t="str">
         <f>IF(OR(B8&lt;&gt;"",E8&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Create Profile-4]</v>
@@ -8929,7 +8937,7 @@
       </c>
       <c r="M8" s="53"/>
     </row>
-    <row r="9" spans="1:13" ht="42">
+    <row r="9" spans="1:13" ht="40.799999999999997">
       <c r="A9" s="52" t="str">
         <f>IF(OR(B9&lt;&gt;"",E9&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Create Profile-5]</v>
@@ -8969,7 +8977,7 @@
       </c>
       <c r="M9" s="53"/>
     </row>
-    <row r="10" spans="1:13" ht="42">
+    <row r="10" spans="1:13" ht="40.799999999999997">
       <c r="A10" s="52" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Profile-6]</v>
@@ -9009,7 +9017,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="52.5">
+    <row r="11" spans="1:13" ht="51">
       <c r="A11" s="52" t="str">
         <f t="shared" ref="A11:A16" si="1">IF(OR(B11&lt;&gt;"",E11&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Create Profile-7]</v>
@@ -9051,7 +9059,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="52.5">
+    <row r="12" spans="1:13" ht="51">
       <c r="A12" s="52" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Profile-8]</v>
@@ -9089,7 +9097,7 @@
       </c>
       <c r="M12" s="53"/>
     </row>
-    <row r="13" spans="1:13" ht="42">
+    <row r="13" spans="1:13" ht="40.799999999999997">
       <c r="A13" s="52" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Profile-9]</v>
@@ -9127,7 +9135,7 @@
       </c>
       <c r="M13" s="53"/>
     </row>
-    <row r="14" spans="1:13" ht="42">
+    <row r="14" spans="1:13" ht="40.799999999999997">
       <c r="A14" s="52" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Profile-10]</v>
@@ -9165,7 +9173,7 @@
       </c>
       <c r="M14" s="53"/>
     </row>
-    <row r="15" spans="1:13" ht="42">
+    <row r="15" spans="1:13" ht="40.799999999999997">
       <c r="A15" s="52" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Profile-11]</v>
@@ -9203,7 +9211,7 @@
       </c>
       <c r="M15" s="53"/>
     </row>
-    <row r="16" spans="1:13" ht="42">
+    <row r="16" spans="1:13" ht="40.799999999999997">
       <c r="A16" s="52" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Profile-12]</v>
@@ -9241,7 +9249,7 @@
       </c>
       <c r="M16" s="53"/>
     </row>
-    <row r="17" spans="1:13" ht="42">
+    <row r="17" spans="1:13" ht="40.799999999999997">
       <c r="A17" s="52" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Profile-13]</v>
@@ -9279,7 +9287,7 @@
       </c>
       <c r="M17" s="53"/>
     </row>
-    <row r="18" spans="1:13" ht="42">
+    <row r="18" spans="1:13" ht="40.799999999999997">
       <c r="A18" s="52" t="str">
         <f>IF(OR(B18&lt;&gt;"",E18&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Create Profile-14]</v>
@@ -9317,7 +9325,7 @@
       </c>
       <c r="M18" s="53"/>
     </row>
-    <row r="19" spans="1:13" ht="42">
+    <row r="19" spans="1:13" ht="40.799999999999997">
       <c r="A19" s="52" t="str">
         <f>IF(OR(B19&lt;&gt;"",E19&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Create Profile-15]</v>
@@ -9355,7 +9363,7 @@
       </c>
       <c r="M19" s="53"/>
     </row>
-    <row r="20" spans="1:13" ht="42">
+    <row r="20" spans="1:13" ht="40.799999999999997">
       <c r="A20" s="52" t="str">
         <f>IF(OR(B20&lt;&gt;"",E20&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Create Profile-16]</v>
@@ -9393,7 +9401,7 @@
       </c>
       <c r="M20" s="53"/>
     </row>
-    <row r="21" spans="1:13" ht="42">
+    <row r="21" spans="1:13" ht="40.799999999999997">
       <c r="A21" s="52" t="str">
         <f>IF(OR(B21&lt;&gt;"",E21&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Create Profile-17]</v>
@@ -9431,7 +9439,7 @@
       </c>
       <c r="M21" s="53"/>
     </row>
-    <row r="22" spans="1:13" ht="52.5">
+    <row r="22" spans="1:13" ht="51">
       <c r="A22" s="52" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Profile-18]</v>
@@ -9471,7 +9479,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="42">
+    <row r="23" spans="1:13" ht="40.799999999999997">
       <c r="A23" s="52" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Profile-19]</v>
@@ -9511,7 +9519,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="105">
+    <row r="24" spans="1:13" ht="102">
       <c r="A24" s="52" t="str">
         <f t="shared" ref="A24" si="2">IF(OR(B24&lt;&gt;"",E24&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Create Profile-20]</v>
@@ -9551,7 +9559,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="52.5">
+    <row r="25" spans="1:13" ht="61.2">
       <c r="A25" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Profile-21]</v>
@@ -9589,7 +9597,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="31.5">
+    <row r="26" spans="1:13" ht="30.6">
       <c r="A26" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Profile-22]</v>
@@ -9627,7 +9635,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="84">
+    <row r="27" spans="1:13" ht="81.599999999999994">
       <c r="A27" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Profile-23]</v>
@@ -9665,7 +9673,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="42">
+    <row r="28" spans="1:13" ht="40.799999999999997">
       <c r="A28" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Profile-24]</v>
@@ -9703,7 +9711,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="94.5">
+    <row r="29" spans="1:13" ht="112.2">
       <c r="A29" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Profile-25]</v>
@@ -9743,7 +9751,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="42">
+    <row r="30" spans="1:13" ht="40.799999999999997">
       <c r="A30" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Profile-26]</v>
@@ -9783,7 +9791,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="63">
+    <row r="31" spans="1:13" ht="61.2">
       <c r="A31" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Profile-27]</v>
@@ -9821,7 +9829,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="31.5">
+    <row r="32" spans="1:13" ht="30.6">
       <c r="A32" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Profile-28]</v>
@@ -9859,7 +9867,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="31.5">
+    <row r="33" spans="1:13" ht="30.6">
       <c r="A33" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Profile-29]</v>
@@ -9897,7 +9905,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="42">
+    <row r="34" spans="1:13" ht="40.799999999999997">
       <c r="A34" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Profile-30]</v>
@@ -9935,7 +9943,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="42">
+    <row r="35" spans="1:13" ht="40.799999999999997">
       <c r="A35" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Profile-31]</v>
@@ -9975,7 +9983,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="42">
+    <row r="36" spans="1:13" ht="40.799999999999997">
       <c r="A36" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Profile-32]</v>
@@ -10011,7 +10019,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="63">
+    <row r="37" spans="1:13" ht="61.2">
       <c r="A37" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Profile-33]</v>
@@ -10047,7 +10055,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="52.5">
+    <row r="38" spans="1:13" ht="51">
       <c r="A38" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Profile-34]</v>
@@ -10083,7 +10091,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="52.5">
+    <row r="39" spans="1:13" ht="51">
       <c r="A39" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Profile-35]</v>
@@ -10119,7 +10127,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="52.5">
+    <row r="40" spans="1:13" ht="51">
       <c r="A40" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Profile-36]</v>
@@ -10184,19 +10192,19 @@
       <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="22.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="17.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -10221,7 +10229,7 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:13" ht="21">
+    <row r="2" spans="1:13" ht="20.399999999999999">
       <c r="A2" s="43" t="s">
         <v>36</v>
       </c>
@@ -10304,7 +10312,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="63">
+    <row r="5" spans="1:13" ht="61.2">
       <c r="A5" s="62" t="str">
         <f t="shared" ref="A5:A37" si="0">IF(OR(B5&lt;&gt;"",E5&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Dashboard/Delete Account-1]</v>
@@ -10344,7 +10352,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="42">
+    <row r="6" spans="1:13" ht="40.799999999999997">
       <c r="A6" s="54" t="str">
         <f>IF(OR(B6&lt;&gt;"",E6&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Dashboard/Delete Account-2]</v>
@@ -10384,7 +10392,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="42">
+    <row r="7" spans="1:13" ht="40.799999999999997">
       <c r="A7" s="54" t="str">
         <f>IF(OR(B7&lt;&gt;"",E7&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Dashboard/Delete Account-3]</v>
@@ -10422,7 +10430,7 @@
       </c>
       <c r="M7" s="53"/>
     </row>
-    <row r="8" spans="1:13" ht="42">
+    <row r="8" spans="1:13" ht="40.799999999999997">
       <c r="A8" s="54" t="str">
         <f>IF(OR(B8&lt;&gt;"",E8&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Dashboard/Delete Account-4]</v>
@@ -10460,7 +10468,7 @@
       </c>
       <c r="M8" s="53"/>
     </row>
-    <row r="9" spans="1:13" ht="42">
+    <row r="9" spans="1:13" ht="40.799999999999997">
       <c r="A9" s="54" t="str">
         <f>IF(OR(B9&lt;&gt;"",E9&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Dashboard/Delete Account-5]</v>
@@ -10498,7 +10506,7 @@
       </c>
       <c r="M9" s="53"/>
     </row>
-    <row r="10" spans="1:13" ht="147">
+    <row r="10" spans="1:13" ht="142.80000000000001">
       <c r="A10" s="60" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Dashboard/Delete Account-6]</v>
@@ -10538,7 +10546,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="42">
+    <row r="11" spans="1:13" ht="40.799999999999997">
       <c r="A11" s="51" t="str">
         <f>IF(OR(B11&lt;&gt;"",E11&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Dashboard/Delete Account-7]</v>
@@ -10578,7 +10586,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="42">
+    <row r="12" spans="1:13" ht="40.799999999999997">
       <c r="A12" s="51" t="str">
         <f>IF(OR(B12&lt;&gt;"",E12&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Dashboard/Delete Account-8]</v>
@@ -10618,7 +10626,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="52.5">
+    <row r="13" spans="1:13" ht="51">
       <c r="A13" s="54" t="str">
         <f t="shared" ref="A13:A17" si="1">IF(OR(B13&lt;&gt;"",E13&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Dashboard/Delete Account-9]</v>
@@ -10658,7 +10666,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="52.5">
+    <row r="14" spans="1:13" ht="51">
       <c r="A14" s="54" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Dashboard/Delete Account-10]</v>
@@ -10698,7 +10706,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="52.5">
+    <row r="15" spans="1:13" ht="51">
       <c r="A15" s="54" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Dashboard/Delete Account-11]</v>
@@ -10738,7 +10746,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="52.5">
+    <row r="16" spans="1:13" ht="51">
       <c r="A16" s="54" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Dashboard/Delete Account-12]</v>
@@ -10778,7 +10786,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="52.5">
+    <row r="17" spans="1:13" ht="51">
       <c r="A17" s="54" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Dashboard/Delete Account-13]</v>
@@ -10818,7 +10826,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="52.5">
+    <row r="18" spans="1:13" ht="51">
       <c r="A18" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Dashboard/Delete Account-14]</v>
@@ -10858,7 +10866,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="63">
+    <row r="19" spans="1:13" ht="61.2">
       <c r="A19" s="54" t="str">
         <f t="shared" ref="A19" si="2">IF(OR(B19&lt;&gt;"",E19&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Dashboard/Delete Account-15]</v>
@@ -10898,7 +10906,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="52.5">
+    <row r="20" spans="1:13" ht="51">
       <c r="A20" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Dashboard/Delete Account-16]</v>
@@ -10940,7 +10948,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="52.5">
+    <row r="21" spans="1:13" ht="51">
       <c r="A21" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Dashboard/Delete Account-17]</v>
@@ -10980,7 +10988,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="52.5">
+    <row r="22" spans="1:13" ht="61.2">
       <c r="A22" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Dashboard/Delete Account-18]</v>
@@ -11018,7 +11026,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="31.5">
+    <row r="23" spans="1:13" ht="30.6">
       <c r="A23" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Dashboard/Delete Account-19]</v>
@@ -11056,7 +11064,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="84">
+    <row r="24" spans="1:13" ht="81.599999999999994">
       <c r="A24" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Dashboard/Delete Account-20]</v>
@@ -11094,7 +11102,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="42">
+    <row r="25" spans="1:13" ht="40.799999999999997">
       <c r="A25" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Dashboard/Delete Account-21]</v>
@@ -11132,7 +11140,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="94.5">
+    <row r="26" spans="1:13" ht="91.8">
       <c r="A26" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Dashboard/Delete Account-22]</v>
@@ -11172,7 +11180,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="42">
+    <row r="27" spans="1:13" ht="40.799999999999997">
       <c r="A27" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Dashboard/Delete Account-23]</v>
@@ -11212,7 +11220,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="63">
+    <row r="28" spans="1:13" ht="61.2">
       <c r="A28" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Dashboard/Delete Account-24]</v>
@@ -11250,7 +11258,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="31.5">
+    <row r="29" spans="1:13" ht="30.6">
       <c r="A29" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Dashboard/Delete Account-25]</v>
@@ -11288,7 +11296,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="31.5">
+    <row r="30" spans="1:13" ht="30.6">
       <c r="A30" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Dashboard/Delete Account-26]</v>
@@ -11326,7 +11334,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="42">
+    <row r="31" spans="1:13" ht="40.799999999999997">
       <c r="A31" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Dashboard/Delete Account-27]</v>
@@ -11364,7 +11372,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="42">
+    <row r="32" spans="1:13" ht="40.799999999999997">
       <c r="A32" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Dashboard/Delete Account-28]</v>
@@ -11404,7 +11412,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="42">
+    <row r="33" spans="1:13" ht="40.799999999999997">
       <c r="A33" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Dashboard/Delete Account-29]</v>
@@ -11440,7 +11448,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="52.5">
+    <row r="34" spans="1:13" ht="51">
       <c r="A34" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Dashboard/Delete Account-30]</v>
@@ -11476,7 +11484,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="52.5">
+    <row r="35" spans="1:13" ht="51">
       <c r="A35" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Dashboard/Delete Account-31]</v>
@@ -11512,7 +11520,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="52.5">
+    <row r="36" spans="1:13" ht="51">
       <c r="A36" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Dashboard/Delete Account-32]</v>
@@ -11548,7 +11556,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="52.5">
+    <row r="37" spans="1:13" ht="51">
       <c r="A37" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Dashboard/Delete Account-33]</v>
@@ -11613,19 +11621,19 @@
       <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="22.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="40" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="17.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -11733,7 +11741,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="42">
+    <row r="5" spans="1:13" ht="51">
       <c r="A5" s="60" t="str">
         <f t="shared" ref="A5:A10" si="0">IF(OR(B5&lt;&gt;"",E5&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me View/Edit/Delete Profile-1]</v>
@@ -11773,7 +11781,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="52.5">
+    <row r="6" spans="1:13" ht="51">
       <c r="A6" s="52" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-2]</v>
@@ -11813,7 +11821,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="52.5">
+    <row r="7" spans="1:13" ht="51">
       <c r="A7" s="52" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-3]</v>
@@ -11851,7 +11859,7 @@
       </c>
       <c r="M7" s="53"/>
     </row>
-    <row r="8" spans="1:13" ht="115.5">
+    <row r="8" spans="1:13" ht="112.2">
       <c r="A8" s="52" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-4]</v>
@@ -11891,7 +11899,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="52.5">
+    <row r="9" spans="1:13" ht="51">
       <c r="A9" s="52" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-5]</v>
@@ -11929,7 +11937,7 @@
       </c>
       <c r="M9" s="53"/>
     </row>
-    <row r="10" spans="1:13" ht="52.5">
+    <row r="10" spans="1:13" ht="51">
       <c r="A10" s="52" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-6]</v>
@@ -11969,7 +11977,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="105">
+    <row r="11" spans="1:13" ht="102">
       <c r="A11" s="60" t="str">
         <f t="shared" ref="A11:A47" si="1">IF(OR(B11&lt;&gt;"",E11&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me View/Edit/Delete Profile-7]</v>
@@ -12009,7 +12017,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="52.5">
+    <row r="12" spans="1:13" ht="51">
       <c r="A12" s="51" t="str">
         <f>IF(OR(B12&lt;&gt;"",E12&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me View/Edit/Delete Profile-8]</v>
@@ -12049,7 +12057,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="42">
+    <row r="13" spans="1:13" ht="40.799999999999997">
       <c r="A13" s="52" t="str">
         <f>IF(OR(B13&lt;&gt;"",E13&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me View/Edit/Delete Profile-9]</v>
@@ -12089,7 +12097,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="42">
+    <row r="14" spans="1:13" ht="40.799999999999997">
       <c r="A14" s="52" t="str">
         <f>IF(OR(B14&lt;&gt;"",E14&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me View/Edit/Delete Profile-10]</v>
@@ -12127,7 +12135,7 @@
       </c>
       <c r="M14" s="53"/>
     </row>
-    <row r="15" spans="1:13" ht="42">
+    <row r="15" spans="1:13" ht="40.799999999999997">
       <c r="A15" s="52" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-11]</v>
@@ -12167,7 +12175,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="42">
+    <row r="16" spans="1:13" ht="40.799999999999997">
       <c r="A16" s="52" t="str">
         <f t="shared" ref="A16" si="2">IF(OR(B16&lt;&gt;"",E16&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me View/Edit/Delete Profile-12]</v>
@@ -12207,7 +12215,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="42">
+    <row r="17" spans="1:13" ht="40.799999999999997">
       <c r="A17" s="52" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-13]</v>
@@ -12249,7 +12257,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="42">
+    <row r="18" spans="1:13" ht="40.799999999999997">
       <c r="A18" s="52" t="str">
         <f>IF(OR(B18&lt;&gt;"",E18&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me View/Edit/Delete Profile-14]</v>
@@ -12287,7 +12295,7 @@
       </c>
       <c r="M18" s="53"/>
     </row>
-    <row r="19" spans="1:13" ht="42">
+    <row r="19" spans="1:13" ht="40.799999999999997">
       <c r="A19" s="52" t="str">
         <f t="shared" ref="A19" si="3">IF(OR(B19&lt;&gt;"",E19&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me View/Edit/Delete Profile-15]</v>
@@ -12327,7 +12335,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="42">
+    <row r="20" spans="1:13" ht="40.799999999999997">
       <c r="A20" s="52" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-16]</v>
@@ -12369,7 +12377,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="42">
+    <row r="21" spans="1:13" ht="40.799999999999997">
       <c r="A21" s="52" t="str">
         <f>IF(OR(B21&lt;&gt;"",E21&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me View/Edit/Delete Profile-17]</v>
@@ -12409,7 +12417,7 @@
       </c>
       <c r="M21" s="53"/>
     </row>
-    <row r="22" spans="1:13" ht="42">
+    <row r="22" spans="1:13" ht="40.799999999999997">
       <c r="A22" s="52" t="str">
         <f t="shared" ref="A22" si="4">IF(OR(B22&lt;&gt;"",E22&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me View/Edit/Delete Profile-18]</v>
@@ -12451,7 +12459,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="42">
+    <row r="23" spans="1:13" ht="40.799999999999997">
       <c r="A23" s="52" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-19]</v>
@@ -12491,7 +12499,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="42">
+    <row r="24" spans="1:13" ht="40.799999999999997">
       <c r="A24" s="52" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-20]</v>
@@ -12529,7 +12537,7 @@
       </c>
       <c r="M24" s="53"/>
     </row>
-    <row r="25" spans="1:13" ht="42">
+    <row r="25" spans="1:13" ht="40.799999999999997">
       <c r="A25" s="52" t="str">
         <f>IF(OR(B25&lt;&gt;"",E25&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me View/Edit/Delete Profile-21]</v>
@@ -12567,7 +12575,7 @@
       </c>
       <c r="M25" s="53"/>
     </row>
-    <row r="26" spans="1:13" ht="42">
+    <row r="26" spans="1:13" ht="40.799999999999997">
       <c r="A26" s="52" t="str">
         <f>IF(OR(B26&lt;&gt;"",E26&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me View/Edit/Delete Profile-22]</v>
@@ -12605,7 +12613,7 @@
       </c>
       <c r="M26" s="53"/>
     </row>
-    <row r="27" spans="1:13" ht="42">
+    <row r="27" spans="1:13" ht="40.799999999999997">
       <c r="A27" s="52" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-23]</v>
@@ -12645,7 +12653,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="42">
+    <row r="28" spans="1:13" ht="40.799999999999997">
       <c r="A28" s="52" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-24]</v>
@@ -12685,7 +12693,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="63">
+    <row r="29" spans="1:13" ht="81.599999999999994">
       <c r="A29" s="60" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-25]</v>
@@ -12725,7 +12733,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="42">
+    <row r="30" spans="1:13" ht="40.799999999999997">
       <c r="A30" s="51" t="str">
         <f>IF(OR(B30&lt;&gt;"",E30&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me View/Edit/Delete Profile-26]</v>
@@ -12765,7 +12773,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="42">
+    <row r="31" spans="1:13" ht="40.799999999999997">
       <c r="A31" s="51" t="str">
         <f>IF(OR(B31&lt;&gt;"",E31&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me View/Edit/Delete Profile-27]</v>
@@ -12805,7 +12813,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="52.5">
+    <row r="32" spans="1:13" ht="61.2">
       <c r="A32" s="51" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-28]</v>
@@ -12843,7 +12851,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="31.5">
+    <row r="33" spans="1:13" ht="30.6">
       <c r="A33" s="51" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-29]</v>
@@ -12881,7 +12889,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="84">
+    <row r="34" spans="1:13" ht="81.599999999999994">
       <c r="A34" s="51" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-30]</v>
@@ -12919,7 +12927,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="42">
+    <row r="35" spans="1:13" ht="40.799999999999997">
       <c r="A35" s="51" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-31]</v>
@@ -12957,7 +12965,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="94.5">
+    <row r="36" spans="1:13" ht="91.8">
       <c r="A36" s="51" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-32]</v>
@@ -12997,7 +13005,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="42">
+    <row r="37" spans="1:13" ht="40.799999999999997">
       <c r="A37" s="54" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-33]</v>
@@ -13037,7 +13045,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="63">
+    <row r="38" spans="1:13" ht="61.2">
       <c r="A38" s="51" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-34]</v>
@@ -13075,7 +13083,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="31.5">
+    <row r="39" spans="1:13" ht="30.6">
       <c r="A39" s="54" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-35]</v>
@@ -13113,7 +13121,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="31.5">
+    <row r="40" spans="1:13" ht="30.6">
       <c r="A40" s="54" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-36]</v>
@@ -13151,7 +13159,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="42">
+    <row r="41" spans="1:13" ht="40.799999999999997">
       <c r="A41" s="54" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-37]</v>
@@ -13189,7 +13197,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="42">
+    <row r="42" spans="1:13" ht="40.799999999999997">
       <c r="A42" s="54" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-38]</v>
@@ -13229,7 +13237,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="42">
+    <row r="43" spans="1:13" ht="40.799999999999997">
       <c r="A43" s="54" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-39]</v>
@@ -13265,7 +13273,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="52.5">
+    <row r="44" spans="1:13" ht="51">
       <c r="A44" s="54" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-40]</v>
@@ -13301,7 +13309,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="52.5">
+    <row r="45" spans="1:13" ht="51">
       <c r="A45" s="54" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-41]</v>
@@ -13337,7 +13345,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="52.5">
+    <row r="46" spans="1:13" ht="51">
       <c r="A46" s="54" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-42]</v>
@@ -13373,7 +13381,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="52.5">
+    <row r="47" spans="1:13" ht="51">
       <c r="A47" s="54" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me View/Edit/Delete Profile-43]</v>
@@ -13436,19 +13444,19 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.199999999999999"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="3" width="22.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="17.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -13556,7 +13564,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="42">
+    <row r="5" spans="1:13" ht="40.799999999999997">
       <c r="A5" s="63" t="str">
         <f>IF(OR(B5&lt;&gt;"",E5&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[ECH Resource-1]</v>
@@ -13594,7 +13602,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="84">
+    <row r="6" spans="1:13" ht="81.599999999999994">
       <c r="A6" s="63" t="str">
         <f t="shared" ref="A6:A29" si="0">IF(OR(B6&lt;&gt;"",E6&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[ECH Resource-2]</v>
@@ -13634,7 +13642,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="94.5">
+    <row r="7" spans="1:13" ht="91.8">
       <c r="A7" s="63" t="str">
         <f t="shared" ref="A7" si="1">IF(OR(B7&lt;&gt;"",E7&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[ECH Resource-3]</v>
@@ -13674,7 +13682,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="73.5">
+    <row r="8" spans="1:13" ht="71.400000000000006">
       <c r="A8" s="63" t="str">
         <f t="shared" ref="A8" si="2">IF(OR(B8&lt;&gt;"",E8&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[ECH Resource-4]</v>
@@ -13712,7 +13720,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="73.5">
+    <row r="9" spans="1:13" ht="71.400000000000006">
       <c r="A9" s="63" t="str">
         <f t="shared" ref="A9" si="3">IF(OR(B9&lt;&gt;"",E9&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[ECH Resource-5]</v>
@@ -13752,7 +13760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="59" customFormat="1" ht="94.5">
+    <row r="10" spans="1:13" s="59" customFormat="1" ht="91.8">
       <c r="A10" s="50" t="str">
         <f t="shared" si="0"/>
         <v>[ECH Resource-6]</v>
@@ -13790,7 +13798,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="59" customFormat="1" ht="84">
+    <row r="11" spans="1:13" s="59" customFormat="1" ht="81.599999999999994">
       <c r="A11" s="50" t="str">
         <f t="shared" ref="A11:A12" si="4">IF(OR(B11&lt;&gt;"",E11&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[ECH Resource-7]</v>
@@ -13828,7 +13836,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="59" customFormat="1" ht="84">
+    <row r="12" spans="1:13" s="59" customFormat="1" ht="81.599999999999994">
       <c r="A12" s="50" t="str">
         <f t="shared" si="4"/>
         <v>[ECH Resource-8]</v>
@@ -13866,7 +13874,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="52.5">
+    <row r="13" spans="1:13" ht="61.2">
       <c r="A13" s="50" t="str">
         <f t="shared" si="0"/>
         <v>[ECH Resource-9]</v>
@@ -13904,7 +13912,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="42">
+    <row r="14" spans="1:13" ht="40.799999999999997">
       <c r="A14" s="50" t="s">
         <v>829</v>
       </c>
@@ -13941,7 +13949,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="84">
+    <row r="15" spans="1:13" ht="81.599999999999994">
       <c r="A15" s="50" t="str">
         <f t="shared" si="0"/>
         <v>[ECH Resource-11]</v>
@@ -13979,7 +13987,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="42">
+    <row r="16" spans="1:13" ht="40.799999999999997">
       <c r="A16" s="50" t="str">
         <f t="shared" si="0"/>
         <v>[ECH Resource-12]</v>
@@ -14015,7 +14023,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="105">
+    <row r="17" spans="1:13" ht="102">
       <c r="A17" s="50" t="str">
         <f t="shared" si="0"/>
         <v>[ECH Resource-13]</v>
@@ -14053,7 +14061,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="42">
+    <row r="18" spans="1:13" ht="40.799999999999997">
       <c r="A18" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[ECH Resource-14]</v>
@@ -14091,7 +14099,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="73.5">
+    <row r="19" spans="1:13" ht="71.400000000000006">
       <c r="A19" s="50" t="str">
         <f t="shared" si="0"/>
         <v>[ECH Resource-15]</v>
@@ -14127,7 +14135,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="21">
+    <row r="20" spans="1:13" ht="20.399999999999999">
       <c r="A20" s="52" t="str">
         <f t="shared" si="0"/>
         <v>[ECH Resource-16]</v>
@@ -14163,7 +14171,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="31.5">
+    <row r="21" spans="1:13" ht="30.6">
       <c r="A21" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[ECH Resource-17]</v>
@@ -14199,7 +14207,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="31.5">
+    <row r="22" spans="1:13" ht="30.6">
       <c r="A22" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[ECH Resource-18]</v>
@@ -14235,7 +14243,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="42">
+    <row r="23" spans="1:13" ht="40.799999999999997">
       <c r="A23" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[ECH Resource-19]</v>
@@ -14271,7 +14279,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="42">
+    <row r="24" spans="1:13" ht="40.799999999999997">
       <c r="A24" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[ECH Resource-20]</v>
@@ -14309,7 +14317,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="42">
+    <row r="25" spans="1:13" ht="40.799999999999997">
       <c r="A25" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[ECH Resource-21]</v>
@@ -14343,7 +14351,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="52.5">
+    <row r="26" spans="1:13" ht="51">
       <c r="A26" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[ECH Resource-22]</v>
@@ -14377,7 +14385,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="52.5">
+    <row r="27" spans="1:13" ht="51">
       <c r="A27" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[ECH Resource-23]</v>
@@ -14411,7 +14419,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="52.5">
+    <row r="28" spans="1:13" ht="51">
       <c r="A28" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[ECH Resource-24]</v>
@@ -14445,7 +14453,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="52.5">
+    <row r="29" spans="1:13" ht="51">
       <c r="A29" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[ECH Resource-25]</v>
@@ -14507,24 +14515,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.199999999999999"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="3" width="22.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="17.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -14632,7 +14640,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="31.5">
+    <row r="5" spans="1:13" ht="30.6">
       <c r="A5" s="50" t="str">
         <f>IF(OR(B5&lt;&gt;"",E5&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[ECH news-1]</v>
@@ -14672,7 +14680,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="73.5">
+    <row r="6" spans="1:13" ht="71.400000000000006">
       <c r="A6" s="61" t="str">
         <f t="shared" ref="A6:A37" si="0">IF(OR(B6&lt;&gt;"",E6&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[ECH news-2]</v>
@@ -14712,7 +14720,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="52.5">
+    <row r="7" spans="1:13" ht="51">
       <c r="A7" s="61" t="str">
         <f t="shared" si="0"/>
         <v>[ECH news-3]</v>
@@ -14752,7 +14760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="42">
+    <row r="8" spans="1:13" ht="51">
       <c r="A8" s="50" t="str">
         <f t="shared" si="0"/>
         <v>[ECH news-4]</v>
@@ -14792,7 +14800,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="52.5">
+    <row r="9" spans="1:13" ht="51">
       <c r="A9" s="50" t="str">
         <f t="shared" ref="A9:A11" si="1">IF(OR(B9&lt;&gt;"",E9&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[ECH news-5]</v>
@@ -14832,7 +14840,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="42">
+    <row r="10" spans="1:13" ht="51">
       <c r="A10" s="50" t="str">
         <f t="shared" si="1"/>
         <v>[ECH news-6]</v>
@@ -14870,7 +14878,7 @@
       </c>
       <c r="M10" s="53"/>
     </row>
-    <row r="11" spans="1:13" ht="52.5">
+    <row r="11" spans="1:13" ht="51">
       <c r="A11" s="50" t="str">
         <f t="shared" si="1"/>
         <v>[ECH news-7]</v>
@@ -14908,7 +14916,7 @@
       </c>
       <c r="M11" s="53"/>
     </row>
-    <row r="12" spans="1:13" ht="42">
+    <row r="12" spans="1:13" ht="40.799999999999997">
       <c r="A12" s="50" t="str">
         <f t="shared" ref="A12" si="2">IF(OR(B12&lt;&gt;"",E12&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[ECH news-8]</v>
@@ -14948,7 +14956,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="42">
+    <row r="13" spans="1:13" ht="40.799999999999997">
       <c r="A13" s="50" t="str">
         <f t="shared" ref="A13" si="3">IF(OR(B13&lt;&gt;"",E13&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[ECH news-9]</v>
@@ -14988,7 +14996,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="42">
+    <row r="14" spans="1:13" ht="40.799999999999997">
       <c r="A14" s="50" t="str">
         <f t="shared" ref="A14" si="4">IF(OR(B14&lt;&gt;"",E14&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[ECH news-10]</v>
@@ -15028,7 +15036,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="42">
+    <row r="15" spans="1:13" ht="40.799999999999997">
       <c r="A15" s="50" t="str">
         <f t="shared" ref="A15:A18" si="5">IF(OR(B15&lt;&gt;"",E15&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[ECH news-11]</v>
@@ -15068,7 +15076,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="42">
+    <row r="16" spans="1:13" ht="40.799999999999997">
       <c r="A16" s="50" t="str">
         <f t="shared" si="5"/>
         <v>[ECH news-12]</v>
@@ -15108,7 +15116,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="42">
+    <row r="17" spans="1:13" ht="40.799999999999997">
       <c r="A17" s="50" t="str">
         <f t="shared" si="5"/>
         <v>[ECH news-13]</v>
@@ -15148,7 +15156,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="42">
+    <row r="18" spans="1:13" ht="40.799999999999997">
       <c r="A18" s="50" t="str">
         <f t="shared" si="5"/>
         <v>[ECH news-14]</v>
@@ -15188,7 +15196,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="42">
+    <row r="19" spans="1:13" ht="40.799999999999997">
       <c r="A19" s="50" t="str">
         <f t="shared" ref="A19" si="6">IF(OR(B19&lt;&gt;"",E19&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[ECH news-15]</v>
@@ -15228,7 +15236,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="52.5">
+    <row r="20" spans="1:13" ht="51">
       <c r="A20" s="50" t="str">
         <f t="shared" si="0"/>
         <v>[ECH news-16]</v>
@@ -15268,7 +15276,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="52.5">
+    <row r="21" spans="1:13" ht="51">
       <c r="A21" s="50" t="str">
         <f t="shared" ref="A21" si="7">IF(OR(B21&lt;&gt;"",E21&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[ECH news-17]</v>
@@ -15308,7 +15316,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="52.5">
+    <row r="22" spans="1:13" ht="61.2">
       <c r="A22" s="50" t="str">
         <f t="shared" si="0"/>
         <v>[ECH news-18]</v>
@@ -15348,7 +15356,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="31.5">
+    <row r="23" spans="1:13" ht="30.6">
       <c r="A23" s="50" t="str">
         <f t="shared" si="0"/>
         <v>[ECH news-19]</v>
@@ -15388,7 +15396,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="84">
+    <row r="24" spans="1:13" ht="81.599999999999994">
       <c r="A24" s="50" t="str">
         <f t="shared" si="0"/>
         <v>[ECH news-20]</v>
@@ -15428,7 +15436,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="42">
+    <row r="25" spans="1:13" ht="40.799999999999997">
       <c r="A25" s="68" t="str">
         <f t="shared" si="0"/>
         <v>[ECH news-21]</v>
@@ -15466,7 +15474,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="94.5">
+    <row r="26" spans="1:13" ht="91.8">
       <c r="A26" s="68" t="str">
         <f t="shared" si="0"/>
         <v>[ECH news-22]</v>
@@ -15506,7 +15514,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="42">
+    <row r="27" spans="1:13" ht="40.799999999999997">
       <c r="A27" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[ECH news-23]</v>
@@ -15546,7 +15554,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="63">
+    <row r="28" spans="1:13" ht="61.2">
       <c r="A28" s="50" t="str">
         <f t="shared" si="0"/>
         <v>[ECH news-24]</v>
@@ -15584,7 +15592,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="31.5">
+    <row r="29" spans="1:13" ht="30.6">
       <c r="A29" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[ECH news-25]</v>
@@ -15622,7 +15630,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="31.5">
+    <row r="30" spans="1:13" ht="30.6">
       <c r="A30" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[ECH news-26]</v>
@@ -15659,7 +15667,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="42">
+    <row r="31" spans="1:13" ht="40.799999999999997">
       <c r="A31" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[ECH news-27]</v>
@@ -15696,7 +15704,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="42">
+    <row r="32" spans="1:13" ht="40.799999999999997">
       <c r="A32" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[ECH news-28]</v>
@@ -15735,7 +15743,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="42">
+    <row r="33" spans="1:13" ht="40.799999999999997">
       <c r="A33" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[ECH news-29]</v>
@@ -15770,7 +15778,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="52.5">
+    <row r="34" spans="1:13" ht="51">
       <c r="A34" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[ECH news-30]</v>
@@ -15805,7 +15813,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="52.5">
+    <row r="35" spans="1:13" ht="51">
       <c r="A35" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[ECH news-31]</v>
@@ -15840,7 +15848,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="52.5">
+    <row r="36" spans="1:13" ht="51">
       <c r="A36" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[ECH news-32]</v>
@@ -15875,7 +15883,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="52.5">
+    <row r="37" spans="1:13" ht="51">
       <c r="A37" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[ECH news-33]</v>
@@ -15938,25 +15946,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="17.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -16062,7 +16070,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="63">
+    <row r="5" spans="1:13" ht="61.2">
       <c r="A5" s="50" t="str">
         <f>IF(OR(B5&lt;&gt;"",E5&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Visiting ECH-1]</v>
@@ -16102,7 +16110,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="31.5">
+    <row r="6" spans="1:13" ht="30.6">
       <c r="A6" s="63" t="str">
         <f t="shared" ref="A6:A31" si="0">IF(OR(B6&lt;&gt;"",E6&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Visiting ECH-2]</v>
@@ -16140,7 +16148,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="42">
+    <row r="7" spans="1:13" ht="40.799999999999997">
       <c r="A7" s="63" t="str">
         <f t="shared" ref="A7" si="1">IF(OR(B7&lt;&gt;"",E7&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Visiting ECH-3]</v>
@@ -16178,7 +16186,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="73.5">
+    <row r="8" spans="1:13" ht="71.400000000000006">
       <c r="A8" s="63" t="str">
         <f t="shared" si="0"/>
         <v>[Visiting ECH-4]</v>
@@ -16216,7 +16224,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="84">
+    <row r="9" spans="1:13" ht="91.8">
       <c r="A9" s="63" t="str">
         <f t="shared" si="0"/>
         <v>[Visiting ECH-5]</v>
@@ -16254,7 +16262,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="315">
+    <row r="10" spans="1:13" ht="306">
       <c r="A10" s="63" t="str">
         <f>IF(OR(B10&lt;&gt;"",E10&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Visiting ECH-6]</v>
@@ -16292,7 +16300,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="73.5">
+    <row r="11" spans="1:13" ht="81.599999999999994">
       <c r="A11" s="63" t="str">
         <f t="shared" ref="A11" si="2">IF(OR(B11&lt;&gt;"",E11&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Visiting ECH-7]</v>
@@ -16368,7 +16376,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="63">
+    <row r="13" spans="1:13" ht="61.2">
       <c r="A13" s="50" t="str">
         <f t="shared" si="0"/>
         <v>[Visiting ECH-9]</v>
@@ -16408,7 +16416,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="73.5">
+    <row r="14" spans="1:13" ht="71.400000000000006">
       <c r="A14" s="50" t="str">
         <f t="shared" si="0"/>
         <v>[Visiting ECH-10]</v>
@@ -16446,7 +16454,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="52.5">
+    <row r="15" spans="1:13" ht="51">
       <c r="A15" s="50" t="str">
         <f t="shared" si="0"/>
         <v>[Visiting ECH-11]</v>
@@ -16484,7 +16492,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="52.5">
+    <row r="16" spans="1:13" ht="61.2">
       <c r="A16" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[Visiting ECH-12]</v>
@@ -16522,7 +16530,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="31.5">
+    <row r="17" spans="1:13" ht="30.6">
       <c r="A17" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[Visiting ECH-13]</v>
@@ -16560,7 +16568,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="105">
+    <row r="18" spans="1:13" ht="102">
       <c r="A18" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[Visiting ECH-14]</v>
@@ -16598,7 +16606,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="63">
+    <row r="19" spans="1:13" ht="61.2">
       <c r="A19" s="68" t="str">
         <f t="shared" si="0"/>
         <v>[Visiting ECH-15]</v>
@@ -16636,7 +16644,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="94.5">
+    <row r="20" spans="1:13" ht="91.8">
       <c r="A20" s="68" t="str">
         <f t="shared" si="0"/>
         <v>[Visiting ECH-16]</v>
@@ -16676,7 +16684,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="42">
+    <row r="21" spans="1:13" ht="40.799999999999997">
       <c r="A21" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Visiting ECH-17]</v>
@@ -16716,7 +16724,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="63">
+    <row r="22" spans="1:13" ht="61.2">
       <c r="A22" s="50" t="str">
         <f t="shared" si="0"/>
         <v>[Visiting ECH-18]</v>
@@ -16754,7 +16762,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="31.5">
+    <row r="23" spans="1:13" ht="30.6">
       <c r="A23" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Visiting ECH-19]</v>
@@ -16794,7 +16802,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="31.5">
+    <row r="24" spans="1:13" ht="30.6">
       <c r="A24" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Visiting ECH-20]</v>
@@ -16832,7 +16840,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="52.5">
+    <row r="25" spans="1:13" ht="51">
       <c r="A25" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Visiting ECH-21]</v>
@@ -16870,7 +16878,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="42">
+    <row r="26" spans="1:13" ht="40.799999999999997">
       <c r="A26" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Visiting ECH-22]</v>
@@ -16910,7 +16918,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="42">
+    <row r="27" spans="1:13" ht="40.799999999999997">
       <c r="A27" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Visiting ECH-23]</v>
@@ -16946,7 +16954,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="52.5">
+    <row r="28" spans="1:13" ht="51">
       <c r="A28" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Visiting ECH-24]</v>
@@ -16982,7 +16990,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="52.5">
+    <row r="29" spans="1:13" ht="51">
       <c r="A29" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Visiting ECH-25]</v>
@@ -17018,7 +17026,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="52.5">
+    <row r="30" spans="1:13" ht="51">
       <c r="A30" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Visiting ECH-26]</v>
@@ -17054,7 +17062,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="52.5">
+    <row r="31" spans="1:13" ht="51">
       <c r="A31" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Visiting ECH-27]</v>
@@ -17125,28 +17133,28 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.25" style="24" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="31.375" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="24" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="24" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="24" customWidth="1"/>
-    <col min="8" max="9" width="9.125" style="24" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="24" customWidth="1"/>
+    <col min="1" max="1" width="2.21875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="24" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="24" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="24" customWidth="1"/>
+    <col min="8" max="9" width="9.109375" style="24" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" style="24" customWidth="1"/>
     <col min="11" max="11" width="7" style="24" customWidth="1"/>
-    <col min="12" max="12" width="5.875" style="24" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" style="24" customWidth="1"/>
     <col min="13" max="13" width="6" style="24" customWidth="1"/>
     <col min="14" max="14" width="5" style="24" customWidth="1"/>
-    <col min="15" max="15" width="11.25" style="24" customWidth="1"/>
+    <col min="15" max="15" width="11.21875" style="24" customWidth="1"/>
     <col min="16" max="16" width="13" style="24" customWidth="1"/>
-    <col min="17" max="18" width="9.125" style="25"/>
-    <col min="19" max="16384" width="9.125" style="24"/>
+    <col min="17" max="18" width="9.109375" style="25"/>
+    <col min="19" max="16384" width="9.109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="10.5">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="10.199999999999999">
       <c r="A1" s="26"/>
       <c r="B1" s="27"/>
       <c r="C1" s="26"/>
@@ -17184,7 +17192,7 @@
       <c r="O2" s="113"/>
       <c r="P2" s="113"/>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="10.5">
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="10.199999999999999">
       <c r="A3" s="26"/>
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
@@ -18376,7 +18384,7 @@
       <c r="P24" s="36"/>
       <c r="Q24" s="24"/>
     </row>
-    <row r="25" spans="1:18" s="40" customFormat="1" ht="12.75">
+    <row r="25" spans="1:18" s="40" customFormat="1" ht="13.2">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="38" t="s">
@@ -18401,7 +18409,7 @@
       <c r="O25" s="37"/>
       <c r="P25" s="39"/>
     </row>
-    <row r="26" spans="1:18" s="40" customFormat="1" ht="12.75">
+    <row r="26" spans="1:18" s="40" customFormat="1" ht="13.2">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="38" t="s">
@@ -18497,14 +18505,14 @@
       <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="5" width="37.625" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" customWidth="1"/>
+    <col min="4" max="5" width="37.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="12.75" customHeight="1">
@@ -18570,7 +18578,7 @@
       <c r="H3"/>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="31.5">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="40.799999999999997">
       <c r="A4" s="47" t="s">
         <v>38</v>
       </c>
@@ -18611,7 +18619,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="63">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="71.400000000000006">
       <c r="A5" s="62" t="str">
         <f>IF(OR(B5&lt;&gt;"",E5&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Hybrid-1]</v>
@@ -18651,7 +18659,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="31.5">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="30.6">
       <c r="A6" s="52" t="str">
         <f t="shared" ref="A6:A21" si="0">IF(OR(B6&lt;&gt;"",E6&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Hybrid-2]</v>
@@ -18691,7 +18699,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="84">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="91.8">
       <c r="A7" s="52" t="str">
         <f t="shared" si="0"/>
         <v>[Hybrid-3]</v>
@@ -18729,7 +18737,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="94.5">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="91.8">
       <c r="A8" s="52" t="str">
         <f>IF(OR(B8&lt;&gt;"",E8&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Hybrid-4]</v>
@@ -18769,7 +18777,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="42">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="40.799999999999997">
       <c r="A9" s="54" t="str">
         <f t="shared" ref="A9" si="1">IF(OR(B9&lt;&gt;"",E9&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Hybrid-5]</v>
@@ -18807,7 +18815,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="31.5">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="30.6">
       <c r="A10" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Hybrid-6]</v>
@@ -18845,7 +18853,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="21">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="20.399999999999999">
       <c r="A11" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Hybrid-7]</v>
@@ -18883,7 +18891,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="63">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="71.400000000000006">
       <c r="A12" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Hybrid-8]</v>
@@ -18921,7 +18929,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="31.5">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="30.6">
       <c r="A13" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Hybrid-9]</v>
@@ -18959,7 +18967,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="94.5">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="91.8">
       <c r="A14" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Hybrid-10]</v>
@@ -18999,7 +19007,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="31.5">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="30.6">
       <c r="A15" s="54" t="str">
         <f t="shared" ref="A15" si="2">IF(OR(B15&lt;&gt;"",E15&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Hybrid-11]</v>
@@ -19039,7 +19047,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="42">
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="40.799999999999997">
       <c r="A16" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Hybrid-12]</v>
@@ -19077,7 +19085,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="42">
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="40.799999999999997">
       <c r="A17" s="54" t="str">
         <f t="shared" ref="A17" si="3">IF(OR(B17&lt;&gt;"",E17&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Hybrid-13]</v>
@@ -19117,7 +19125,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="42">
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="40.799999999999997">
       <c r="A18" s="54" t="str">
         <f t="shared" ref="A18" si="4">IF(OR(B18&lt;&gt;"",E18&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Hybrid-14]</v>
@@ -19155,7 +19163,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="73.5">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="71.400000000000006">
       <c r="A19" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Hybrid-15]</v>
@@ -19193,7 +19201,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="21">
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="20.399999999999999">
       <c r="A20" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Hybrid-16]</v>
@@ -19231,7 +19239,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="21">
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="20.399999999999999">
       <c r="A21" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Hybrid-17]</v>
@@ -19269,7 +19277,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="31.5">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="30.6">
       <c r="A22" s="54" t="str">
         <f t="shared" ref="A22:A28" si="5">IF(OR(B22&lt;&gt;"",E22&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Hybrid-18]</v>
@@ -19307,7 +19315,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="42">
+    <row r="23" spans="1:13" ht="40.799999999999997">
       <c r="A23" s="54" t="str">
         <f t="shared" si="5"/>
         <v>[Hybrid-19]</v>
@@ -19347,7 +19355,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="42">
+    <row r="24" spans="1:13" ht="40.799999999999997">
       <c r="A24" s="54" t="str">
         <f t="shared" si="5"/>
         <v>[Hybrid-20]</v>
@@ -19383,7 +19391,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="52.5">
+    <row r="25" spans="1:13" ht="61.2">
       <c r="A25" s="54" t="str">
         <f t="shared" si="5"/>
         <v>[Hybrid-21]</v>
@@ -19421,7 +19429,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="52.5">
+    <row r="26" spans="1:13" ht="51">
       <c r="A26" s="54" t="str">
         <f t="shared" si="5"/>
         <v>[Hybrid-22]</v>
@@ -19457,7 +19465,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="52.5">
+    <row r="27" spans="1:13" ht="51">
       <c r="A27" s="54" t="str">
         <f t="shared" si="5"/>
         <v>[Hybrid-23]</v>
@@ -19493,7 +19501,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="52.5">
+    <row r="28" spans="1:13" ht="51">
       <c r="A28" s="54" t="str">
         <f t="shared" si="5"/>
         <v>[Hybrid-24]</v>
@@ -19576,20 +19584,21 @@
       <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875"/>
+    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="17.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -19694,7 +19703,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="63">
+    <row r="5" spans="1:13" ht="71.400000000000006">
       <c r="A5" s="62" t="str">
         <f>IF(OR(B5&lt;&gt;"",E5&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Home page-1]</v>
@@ -19734,7 +19743,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="21">
+    <row r="6" spans="1:13" ht="20.399999999999999">
       <c r="A6" s="52" t="str">
         <f t="shared" ref="A6:A27" si="0">IF(OR(B6&lt;&gt;"",E6&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Home page-2]</v>
@@ -19772,7 +19781,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="84">
+    <row r="7" spans="1:13" ht="91.8">
       <c r="A7" s="52" t="str">
         <f t="shared" si="0"/>
         <v>[Home page-3]</v>
@@ -19810,7 +19819,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="94.5">
+    <row r="8" spans="1:13" ht="91.8">
       <c r="A8" s="52" t="str">
         <f t="shared" si="0"/>
         <v>[Home page-4]</v>
@@ -19850,7 +19859,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="42">
+    <row r="9" spans="1:13" ht="40.799999999999997">
       <c r="A9" s="52" t="str">
         <f t="shared" si="0"/>
         <v>[Home page-5]</v>
@@ -19888,7 +19897,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="84">
+    <row r="10" spans="1:13" ht="81.599999999999994">
       <c r="A10" s="60" t="str">
         <f t="shared" si="0"/>
         <v>[Home page-6]</v>
@@ -19928,7 +19937,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="10.5">
+    <row r="11" spans="1:13" ht="10.199999999999999">
       <c r="A11" s="54" t="str">
         <f t="shared" ref="A11" si="1">IF(OR(B11&lt;&gt;"",E11&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Home page-7]</v>
@@ -19966,7 +19975,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="42">
+    <row r="12" spans="1:13" ht="40.799999999999997">
       <c r="A12" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Home page-8]</v>
@@ -20006,7 +20015,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="31.5">
+    <row r="13" spans="1:13" ht="40.799999999999997">
       <c r="A13" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Home page-9]</v>
@@ -20044,7 +20053,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="42">
+    <row r="14" spans="1:13" ht="40.799999999999997">
       <c r="A14" s="54" t="str">
         <f t="shared" ref="A14" si="2">IF(OR(B14&lt;&gt;"",E14&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Home page-10]</v>
@@ -20080,7 +20089,7 @@
       </c>
       <c r="M14" s="53"/>
     </row>
-    <row r="15" spans="1:13" ht="21">
+    <row r="15" spans="1:13" ht="20.399999999999999">
       <c r="A15" s="54" t="str">
         <f t="shared" ref="A15" si="3">IF(OR(B15&lt;&gt;"",E15&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Home page-11]</v>
@@ -20116,7 +20125,7 @@
       </c>
       <c r="M15" s="53"/>
     </row>
-    <row r="16" spans="1:13" ht="31.5">
+    <row r="16" spans="1:13" ht="40.799999999999997">
       <c r="A16" s="54" t="str">
         <f t="shared" ref="A16" si="4">IF(OR(B16&lt;&gt;"",E16&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Home page-12]</v>
@@ -20152,7 +20161,7 @@
       </c>
       <c r="M16" s="53"/>
     </row>
-    <row r="17" spans="1:13" ht="31.5">
+    <row r="17" spans="1:13" ht="30.6">
       <c r="A17" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Home page-13]</v>
@@ -20190,7 +20199,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="63">
+    <row r="18" spans="1:13" ht="61.2">
       <c r="A18" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Home page-14]</v>
@@ -20228,7 +20237,7 @@
       </c>
       <c r="M18" s="53"/>
     </row>
-    <row r="19" spans="1:13" ht="42">
+    <row r="19" spans="1:13" ht="40.799999999999997">
       <c r="A19" s="54" t="str">
         <f>IF(OR(B19&lt;&gt;"",E19&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Home page-15]</v>
@@ -20266,7 +20275,7 @@
       </c>
       <c r="M19" s="53"/>
     </row>
-    <row r="20" spans="1:13" ht="21">
+    <row r="20" spans="1:13" ht="20.399999999999999">
       <c r="A20" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Home page-16]</v>
@@ -20304,7 +20313,7 @@
       </c>
       <c r="M20" s="53"/>
     </row>
-    <row r="21" spans="1:13" ht="52.5">
+    <row r="21" spans="1:13" ht="51">
       <c r="A21" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Home page-17]</v>
@@ -20342,7 +20351,7 @@
       </c>
       <c r="M21" s="53"/>
     </row>
-    <row r="22" spans="1:13" ht="52.5">
+    <row r="22" spans="1:13" ht="51">
       <c r="A22" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Home page-18]</v>
@@ -20380,7 +20389,7 @@
       </c>
       <c r="M22" s="53"/>
     </row>
-    <row r="23" spans="1:13" ht="52.5">
+    <row r="23" spans="1:13" ht="51">
       <c r="A23" s="54" t="str">
         <f t="shared" ref="A23" si="5">IF(OR(B23&lt;&gt;"",E23&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Home page-19]</v>
@@ -20418,7 +20427,7 @@
       </c>
       <c r="M23" s="53"/>
     </row>
-    <row r="24" spans="1:13" ht="31.5">
+    <row r="24" spans="1:13" ht="30.6">
       <c r="A24" s="54" t="str">
         <f t="shared" ref="A24" si="6">IF(OR(B24&lt;&gt;"",E24&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Home page-20]</v>
@@ -20456,7 +20465,7 @@
       </c>
       <c r="M24" s="53"/>
     </row>
-    <row r="25" spans="1:13" ht="31.5">
+    <row r="25" spans="1:13" ht="30.6">
       <c r="A25" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Home page-21]</v>
@@ -20494,7 +20503,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="21">
+    <row r="26" spans="1:13" ht="20.399999999999999">
       <c r="A26" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Home page-22]</v>
@@ -20532,7 +20541,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="63">
+    <row r="27" spans="1:13" ht="71.400000000000006">
       <c r="A27" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Home page-23]</v>
@@ -20570,7 +20579,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="31.5">
+    <row r="28" spans="1:13" ht="30.6">
       <c r="A28" s="54" t="str">
         <f t="shared" ref="A28:A33" si="7">IF(OR(B28&lt;&gt;"",E28&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Home page-24]</v>
@@ -20608,7 +20617,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="94.5">
+    <row r="29" spans="1:13" ht="91.8">
       <c r="A29" s="54" t="str">
         <f t="shared" si="7"/>
         <v>[Home page-25]</v>
@@ -20648,7 +20657,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="31.5">
+    <row r="30" spans="1:13" ht="30.6">
       <c r="A30" s="54" t="str">
         <f t="shared" si="7"/>
         <v>[Home page-26]</v>
@@ -20688,7 +20697,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="21">
+    <row r="31" spans="1:13" ht="20.399999999999999">
       <c r="A31" s="54" t="str">
         <f t="shared" si="7"/>
         <v>[Home page-27]</v>
@@ -20726,7 +20735,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="21">
+    <row r="32" spans="1:13" ht="20.399999999999999">
       <c r="A32" s="54" t="str">
         <f t="shared" si="7"/>
         <v>[Home page-28]</v>
@@ -20764,7 +20773,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="31.5">
+    <row r="33" spans="1:13" ht="30.6">
       <c r="A33" s="54" t="str">
         <f t="shared" si="7"/>
         <v>[Home page-29]</v>
@@ -20802,7 +20811,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="10.5">
+    <row r="34" spans="1:13" ht="10.199999999999999">
       <c r="A34" s="54" t="str">
         <f t="shared" ref="A34" si="8">IF(OR(B34&lt;&gt;"",E34&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Home page-30]</v>
@@ -20867,18 +20876,18 @@
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="1" customWidth="1"/>
-    <col min="2" max="3" width="22.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="43" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="17.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -20980,7 +20989,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="126">
+    <row r="5" spans="1:12" ht="122.4">
       <c r="A5" s="63" t="str">
         <f>IF(OR(B5&lt;&gt;"",E5&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[ER-1]</v>
@@ -21017,7 +21026,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="21">
+    <row r="6" spans="1:12" ht="20.399999999999999">
       <c r="A6" s="63" t="str">
         <f t="shared" ref="A6:A29" si="0">IF(OR(B6&lt;&gt;"",E6&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[ER-2]</v>
@@ -21054,7 +21063,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="31.5">
+    <row r="7" spans="1:12" ht="30.6">
       <c r="A7" s="63" t="str">
         <f t="shared" si="0"/>
         <v>[ER-3]</v>
@@ -21091,7 +21100,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="42">
+    <row r="8" spans="1:12" ht="40.799999999999997">
       <c r="A8" s="63" t="str">
         <f t="shared" ref="A8" si="1">IF(OR(B8&lt;&gt;"",E8&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[ER-4]</v>
@@ -21128,7 +21137,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="126">
+    <row r="9" spans="1:12" ht="122.4">
       <c r="A9" s="63" t="str">
         <f t="shared" si="0"/>
         <v>[ER-5]</v>
@@ -21167,7 +21176,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="126">
+    <row r="10" spans="1:12" ht="122.4">
       <c r="A10" s="63" t="str">
         <f t="shared" si="0"/>
         <v>[ER-6]</v>
@@ -21204,7 +21213,7 @@
       </c>
       <c r="L10" s="63"/>
     </row>
-    <row r="11" spans="1:12" ht="84">
+    <row r="11" spans="1:12" ht="81.599999999999994">
       <c r="A11" s="63" t="str">
         <f t="shared" si="0"/>
         <v>[ER-7]</v>
@@ -21241,7 +21250,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="84">
+    <row r="12" spans="1:12" ht="81.599999999999994">
       <c r="A12" s="63" t="str">
         <f t="shared" ref="A12" si="2">IF(OR(B12&lt;&gt;"",E12&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[ER-8]</v>
@@ -21278,7 +21287,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="52.5">
+    <row r="13" spans="1:12" ht="51">
       <c r="A13" s="56" t="str">
         <f t="shared" ref="A13" si="3">IF(OR(B13&lt;&gt;"",E13&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[ER-9]</v>
@@ -21315,7 +21324,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="31.5">
+    <row r="14" spans="1:12" ht="30.6">
       <c r="A14" s="56" t="str">
         <f t="shared" si="0"/>
         <v>[ER-10]</v>
@@ -21352,7 +21361,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="73.5">
+    <row r="15" spans="1:12" ht="71.400000000000006">
       <c r="A15" s="56" t="str">
         <f t="shared" si="0"/>
         <v>[ER-11]</v>
@@ -21389,7 +21398,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="21">
+    <row r="16" spans="1:12" ht="20.399999999999999">
       <c r="A16" s="56" t="str">
         <f t="shared" si="0"/>
         <v>[ER-12]</v>
@@ -21426,7 +21435,7 @@
       </c>
       <c r="L16" s="57"/>
     </row>
-    <row r="17" spans="1:12" ht="21">
+    <row r="17" spans="1:12" ht="20.399999999999999">
       <c r="A17" s="56" t="str">
         <f t="shared" si="0"/>
         <v>[ER-13]</v>
@@ -21463,7 +21472,7 @@
       </c>
       <c r="L17" s="57"/>
     </row>
-    <row r="18" spans="1:12" ht="31.5">
+    <row r="18" spans="1:12" ht="30.6">
       <c r="A18" s="56" t="str">
         <f t="shared" ref="A18" si="4">IF(OR(B18&lt;&gt;"",E18&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[ER-14]</v>
@@ -21500,7 +21509,7 @@
       </c>
       <c r="L18" s="57"/>
     </row>
-    <row r="19" spans="1:12" ht="42">
+    <row r="19" spans="1:12" ht="40.799999999999997">
       <c r="A19" s="56" t="str">
         <f t="shared" ref="A19" si="5">IF(OR(B19&lt;&gt;"",E19&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[ER-15]</v>
@@ -21537,7 +21546,7 @@
       </c>
       <c r="L19" s="57"/>
     </row>
-    <row r="20" spans="1:12" ht="105">
+    <row r="20" spans="1:12" ht="102">
       <c r="A20" s="56" t="str">
         <f t="shared" si="0"/>
         <v>[ER-16]</v>
@@ -21576,7 +21585,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="73.5">
+    <row r="21" spans="1:12" ht="71.400000000000006">
       <c r="A21" s="56" t="str">
         <f t="shared" si="0"/>
         <v>[ER-17]</v>
@@ -21613,7 +21622,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="73.5">
+    <row r="22" spans="1:12" ht="71.400000000000006">
       <c r="A22" s="56" t="str">
         <f>IF(OR(B22&lt;&gt;"",E22&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[ER-18]</v>
@@ -21652,7 +21661,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="42">
+    <row r="23" spans="1:12" ht="40.799999999999997">
       <c r="A23" s="56" t="str">
         <f t="shared" si="0"/>
         <v>[ER-19]</v>
@@ -21689,7 +21698,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="31.5">
+    <row r="24" spans="1:12" ht="30.6">
       <c r="A24" s="56" t="str">
         <f t="shared" si="0"/>
         <v>[ER-20]</v>
@@ -21726,7 +21735,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="21">
+    <row r="25" spans="1:12" ht="20.399999999999999">
       <c r="A25" s="56" t="str">
         <f>IF(OR(B25&lt;&gt;"",E25&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[ER-21]</v>
@@ -21763,7 +21772,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="52.5">
+    <row r="26" spans="1:12" ht="61.2">
       <c r="A26" s="56" t="str">
         <f t="shared" si="0"/>
         <v>[ER-22]</v>
@@ -21800,7 +21809,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="31.5">
+    <row r="27" spans="1:12" ht="30.6">
       <c r="A27" s="56" t="str">
         <f t="shared" si="0"/>
         <v>[ER-23]</v>
@@ -21837,7 +21846,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="84">
+    <row r="28" spans="1:12" ht="81.599999999999994">
       <c r="A28" s="56" t="str">
         <f t="shared" si="0"/>
         <v>[ER-24]</v>
@@ -21874,7 +21883,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="42">
+    <row r="29" spans="1:12" ht="40.799999999999997">
       <c r="A29" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[ER-25]</v>
@@ -21911,7 +21920,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="94.5">
+    <row r="30" spans="1:12" ht="91.8">
       <c r="A30" s="54" t="str">
         <f>IF(OR(B30&lt;&gt;"",E30&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[ER-26]</v>
@@ -21950,7 +21959,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="42">
+    <row r="31" spans="1:12" ht="40.799999999999997">
       <c r="A31" s="54" t="str">
         <f t="shared" ref="A31:A42" si="6">IF(OR(B31&lt;&gt;"",E31&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[ER-27]</v>
@@ -21989,7 +21998,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="42">
+    <row r="32" spans="1:12" ht="40.799999999999997">
       <c r="A32" s="54" t="str">
         <f t="shared" si="6"/>
         <v>[ER-28]</v>
@@ -22026,7 +22035,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="63">
+    <row r="33" spans="1:12" ht="61.2">
       <c r="A33" s="51" t="str">
         <f t="shared" si="6"/>
         <v>[ER-29]</v>
@@ -22063,7 +22072,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="31.5">
+    <row r="34" spans="1:12" ht="30.6">
       <c r="A34" s="54" t="str">
         <f t="shared" si="6"/>
         <v>[ER-30]</v>
@@ -22100,7 +22109,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="31.5">
+    <row r="35" spans="1:12" ht="30.6">
       <c r="A35" s="54" t="str">
         <f t="shared" si="6"/>
         <v>[ER-31]</v>
@@ -22137,7 +22146,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="42">
+    <row r="36" spans="1:12" ht="40.799999999999997">
       <c r="A36" s="54" t="str">
         <f t="shared" si="6"/>
         <v>[ER-32]</v>
@@ -22174,7 +22183,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="31.5">
+    <row r="37" spans="1:12" ht="30.6">
       <c r="A37" s="54" t="str">
         <f t="shared" si="6"/>
         <v>[ER-33]</v>
@@ -22213,7 +22222,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="31.5">
+    <row r="38" spans="1:12" ht="30.6">
       <c r="A38" s="54" t="str">
         <f t="shared" si="6"/>
         <v>[ER-34]</v>
@@ -22248,7 +22257,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="42">
+    <row r="39" spans="1:12" ht="40.799999999999997">
       <c r="A39" s="54" t="str">
         <f t="shared" si="6"/>
         <v>[ER-35]</v>
@@ -22285,7 +22294,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="42">
+    <row r="40" spans="1:12" ht="40.799999999999997">
       <c r="A40" s="54" t="str">
         <f t="shared" si="6"/>
         <v>[ER-36]</v>
@@ -22320,7 +22329,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="52.5">
+    <row r="41" spans="1:12" ht="51">
       <c r="A41" s="54" t="str">
         <f t="shared" si="6"/>
         <v>[ER-37]</v>
@@ -22355,7 +22364,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="42">
+    <row r="42" spans="1:12" ht="40.799999999999997">
       <c r="A42" s="54" t="str">
         <f t="shared" si="6"/>
         <v>[ER-38]</v>
@@ -22423,20 +22432,20 @@
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="53.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="17.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -22544,7 +22553,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="31.5">
+    <row r="5" spans="1:13" ht="30.6">
       <c r="A5" s="51" t="str">
         <f>IF(OR(B5&lt;&gt;"",E5&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Find Physician-1]</v>
@@ -22584,7 +22593,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="105">
+    <row r="6" spans="1:13" ht="102">
       <c r="A6" s="62" t="str">
         <f t="shared" ref="A6:A28" si="0">IF(OR(B6&lt;&gt;"",E6&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Find Physician-2]</v>
@@ -22622,7 +22631,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="105">
+    <row r="7" spans="1:13" ht="112.2">
       <c r="A7" s="62" t="str">
         <f t="shared" si="0"/>
         <v>[Find Physician-3]</v>
@@ -22660,7 +22669,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="94.5">
+    <row r="8" spans="1:13" ht="102">
       <c r="A8" s="62" t="str">
         <f t="shared" si="0"/>
         <v>[Find Physician-4]</v>
@@ -22698,7 +22707,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="52.5">
+    <row r="9" spans="1:13" ht="51">
       <c r="A9" s="51" t="str">
         <f t="shared" ref="A9" si="1">IF(OR(B9&lt;&gt;"",E9&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Find Physician-5]</v>
@@ -22738,7 +22747,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="220.5">
+    <row r="10" spans="1:13" ht="214.2">
       <c r="A10" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[Find Physician-6]</v>
@@ -22778,7 +22787,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="21">
+    <row r="11" spans="1:13" ht="20.399999999999999">
       <c r="A11" s="54" t="str">
         <f t="shared" ref="A11" si="2">IF(OR(B11&lt;&gt;"",E11&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Find Physician-7]</v>
@@ -22816,7 +22825,7 @@
       </c>
       <c r="M11" s="53"/>
     </row>
-    <row r="12" spans="1:13" ht="31.5">
+    <row r="12" spans="1:13" ht="30.6">
       <c r="A12" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Find Physician-8]</v>
@@ -22854,7 +22863,7 @@
       </c>
       <c r="M12" s="53"/>
     </row>
-    <row r="13" spans="1:13" ht="42">
+    <row r="13" spans="1:13" ht="40.799999999999997">
       <c r="A13" s="54" t="str">
         <f t="shared" ref="A13" si="3">IF(OR(B13&lt;&gt;"",E13&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Find Physician-9]</v>
@@ -22892,7 +22901,7 @@
       </c>
       <c r="M13" s="53"/>
     </row>
-    <row r="14" spans="1:13" ht="31.5">
+    <row r="14" spans="1:13" ht="30.6">
       <c r="A14" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Find Physician-10]</v>
@@ -22930,7 +22939,7 @@
       </c>
       <c r="M14" s="53"/>
     </row>
-    <row r="15" spans="1:13" ht="21">
+    <row r="15" spans="1:13" ht="20.399999999999999">
       <c r="A15" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Find Physician-11]</v>
@@ -22968,7 +22977,7 @@
       </c>
       <c r="M15" s="53"/>
     </row>
-    <row r="16" spans="1:13" ht="21">
+    <row r="16" spans="1:13" ht="20.399999999999999">
       <c r="A16" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Find Physician-12]</v>
@@ -23006,7 +23015,7 @@
       </c>
       <c r="M16" s="53"/>
     </row>
-    <row r="17" spans="1:13" ht="42">
+    <row r="17" spans="1:13" ht="40.799999999999997">
       <c r="A17" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[Find Physician-13]</v>
@@ -23046,7 +23055,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="42">
+    <row r="18" spans="1:13" ht="40.799999999999997">
       <c r="A18" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[Find Physician-14]</v>
@@ -23084,7 +23093,7 @@
       </c>
       <c r="M18" s="53"/>
     </row>
-    <row r="19" spans="1:13" ht="52.5">
+    <row r="19" spans="1:13" ht="61.2">
       <c r="A19" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[Find Physician-15]</v>
@@ -23122,7 +23131,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="31.5">
+    <row r="20" spans="1:13" ht="30.6">
       <c r="A20" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[Find Physician-16]</v>
@@ -23160,7 +23169,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="84">
+    <row r="21" spans="1:13" ht="81.599999999999994">
       <c r="A21" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[Find Physician-17]</v>
@@ -23198,7 +23207,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="42">
+    <row r="22" spans="1:13" ht="40.799999999999997">
       <c r="A22" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[Find Physician-18]</v>
@@ -23236,7 +23245,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="94.5">
+    <row r="23" spans="1:13" ht="91.8">
       <c r="A23" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[Find Physician-19]</v>
@@ -23276,7 +23285,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="42">
+    <row r="24" spans="1:13" ht="40.799999999999997">
       <c r="A24" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Find Physician-20]</v>
@@ -23316,7 +23325,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="63">
+    <row r="25" spans="1:13" ht="61.2">
       <c r="A25" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[Find Physician-21]</v>
@@ -23354,7 +23363,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="31.5">
+    <row r="26" spans="1:13" ht="30.6">
       <c r="A26" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Find Physician-22]</v>
@@ -23394,7 +23403,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="31.5">
+    <row r="27" spans="1:13" ht="30.6">
       <c r="A27" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Find Physician-23]</v>
@@ -23432,7 +23441,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="42">
+    <row r="28" spans="1:13" ht="40.799999999999997">
       <c r="A28" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Find Physician-24]</v>
@@ -23470,7 +23479,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="31.5">
+    <row r="29" spans="1:13" ht="40.799999999999997">
       <c r="A29" s="54" t="str">
         <f>IF(OR(B29&lt;&gt;"",E29&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[Find Physician-25]</v>
@@ -23617,7 +23626,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="42">
+    <row r="33" spans="1:13" ht="40.799999999999997">
       <c r="A33" s="54" t="str">
         <f t="shared" si="4"/>
         <v>[Find Physician-29]</v>
@@ -23652,7 +23661,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="52.5">
+    <row r="34" spans="1:13" ht="51">
       <c r="A34" s="54" t="str">
         <f t="shared" si="4"/>
         <v>[Find Physician-30]</v>
@@ -23687,7 +23696,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="31.5">
+    <row r="35" spans="1:13" ht="30.6">
       <c r="A35" s="54" t="str">
         <f t="shared" si="4"/>
         <v>[Find Physician-31]</v>
@@ -23757,19 +23766,19 @@
       <selection pane="bottomRight" activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
-    <col min="2" max="3" width="22.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="17.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -23877,7 +23886,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="63">
+    <row r="5" spans="1:13" ht="61.2">
       <c r="A5" s="51" t="str">
         <f>IF(OR(B5&lt;&gt;"",E5&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Login-1]</v>
@@ -23917,7 +23926,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="84">
+    <row r="6" spans="1:13" ht="81.599999999999994">
       <c r="A6" s="62" t="str">
         <f t="shared" ref="A6:A35" si="0">IF(OR(B6&lt;&gt;"",E6&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Login-2]</v>
@@ -23957,7 +23966,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="42">
+    <row r="7" spans="1:13" ht="40.799999999999997">
       <c r="A7" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Login-3]</v>
@@ -23997,7 +24006,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="42">
+    <row r="8" spans="1:13" ht="40.799999999999997">
       <c r="A8" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Login-4]</v>
@@ -24037,7 +24046,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="52.5">
+    <row r="9" spans="1:13" ht="51">
       <c r="A9" s="51" t="str">
         <f t="shared" ref="A9" si="1">IF(OR(B9&lt;&gt;"",E9&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Login-5]</v>
@@ -24077,7 +24086,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="42">
+    <row r="10" spans="1:13" ht="40.799999999999997">
       <c r="A10" s="51" t="str">
         <f t="shared" ref="A10" si="2">IF(OR(B10&lt;&gt;"",E10&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Login-6]</v>
@@ -24117,7 +24126,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="42">
+    <row r="11" spans="1:13" ht="40.799999999999997">
       <c r="A11" s="52" t="str">
         <f>IF(OR(B11&lt;&gt;"",E11&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Login-7]</v>
@@ -24157,7 +24166,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="63">
+    <row r="12" spans="1:13" ht="71.400000000000006">
       <c r="A12" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Login-8]</v>
@@ -24197,7 +24206,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="42">
+    <row r="13" spans="1:13" ht="40.799999999999997">
       <c r="A13" s="51" t="str">
         <f>IF(OR(B13&lt;&gt;"",E13&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Login-9]</v>
@@ -24237,7 +24246,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="42">
+    <row r="14" spans="1:13" ht="40.799999999999997">
       <c r="A14" s="51" t="str">
         <f>IF(OR(B14&lt;&gt;"",E14&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Login-10]</v>
@@ -24277,7 +24286,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="94.5">
+    <row r="15" spans="1:13" ht="91.8">
       <c r="A15" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Login-11]</v>
@@ -24319,7 +24328,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="52.5">
+    <row r="16" spans="1:13" ht="61.2">
       <c r="A16" s="62" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Login-12]</v>
@@ -24359,7 +24368,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="42">
+    <row r="17" spans="1:13" ht="40.799999999999997">
       <c r="A17" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Login-13]</v>
@@ -24399,7 +24408,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="42">
+    <row r="18" spans="1:13" ht="40.799999999999997">
       <c r="A18" s="78" t="str">
         <f t="shared" ref="A18" si="3">IF(OR(B18&lt;&gt;"",E18&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Login-14]</v>
@@ -24439,7 +24448,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="63">
+    <row r="19" spans="1:13" ht="71.400000000000006">
       <c r="A19" s="51" t="str">
         <f>IF(OR(B19&lt;&gt;"",E19&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Login-15]</v>
@@ -24479,7 +24488,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="52.5">
+    <row r="20" spans="1:13" ht="61.2">
       <c r="A20" s="51" t="str">
         <f>IF(OR(B20&lt;&gt;"",E20&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Login-16]</v>
@@ -24519,7 +24528,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="52.5">
+    <row r="21" spans="1:13" ht="61.2">
       <c r="A21" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Login-17]</v>
@@ -24557,7 +24566,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="31.5">
+    <row r="22" spans="1:13" ht="30.6">
       <c r="A22" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Login-18]</v>
@@ -24595,7 +24604,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="84">
+    <row r="23" spans="1:13" ht="81.599999999999994">
       <c r="A23" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Login-19]</v>
@@ -24633,7 +24642,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="42">
+    <row r="24" spans="1:13" ht="40.799999999999997">
       <c r="A24" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Login-20]</v>
@@ -24671,7 +24680,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="42">
+    <row r="25" spans="1:13" ht="40.799999999999997">
       <c r="A25" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Login-21]</v>
@@ -24711,7 +24720,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="42">
+    <row r="26" spans="1:13" ht="40.799999999999997">
       <c r="A26" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Login-22]</v>
@@ -24751,7 +24760,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="63">
+    <row r="27" spans="1:13" ht="61.2">
       <c r="A27" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Login-23]</v>
@@ -24789,7 +24798,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="31.5">
+    <row r="28" spans="1:13" ht="30.6">
       <c r="A28" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Login-24]</v>
@@ -24827,7 +24836,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="31.5">
+    <row r="29" spans="1:13" ht="30.6">
       <c r="A29" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Login-25]</v>
@@ -24865,7 +24874,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="31.5">
+    <row r="30" spans="1:13" ht="30.6">
       <c r="A30" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Login-26]</v>
@@ -24905,7 +24914,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="31.5">
+    <row r="31" spans="1:13" ht="30.6">
       <c r="A31" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Login-27]</v>
@@ -24941,7 +24950,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="42">
+    <row r="32" spans="1:13" ht="40.799999999999997">
       <c r="A32" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Login-28]</v>
@@ -24977,7 +24986,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="42">
+    <row r="33" spans="1:13" ht="40.799999999999997">
       <c r="A33" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Login-29]</v>
@@ -25013,7 +25022,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="52.5">
+    <row r="34" spans="1:13" ht="51">
       <c r="A34" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Login-30]</v>
@@ -25049,7 +25058,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="42">
+    <row r="35" spans="1:13" ht="40.799999999999997">
       <c r="A35" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Login-31]</v>
@@ -25120,18 +25129,18 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="22.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="53.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="17.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -25233,7 +25242,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="115.5">
+    <row r="5" spans="1:12" ht="112.2">
       <c r="A5" s="60" t="str">
         <f>IF(OR(B5&lt;&gt;"",E5&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Forgot Password-1]</v>
@@ -25272,7 +25281,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="42">
+    <row r="6" spans="1:12" ht="40.799999999999997">
       <c r="A6" s="52" t="str">
         <f t="shared" ref="A6:A27" si="0">IF(OR(B6&lt;&gt;"",E6&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Forgot Password-2]</v>
@@ -25311,7 +25320,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="42">
+    <row r="7" spans="1:12" ht="40.799999999999997">
       <c r="A7" s="52" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Forgot Password-3]</v>
@@ -25350,7 +25359,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="73.5">
+    <row r="8" spans="1:12" ht="81.599999999999994">
       <c r="A8" s="52" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Forgot Password-4]</v>
@@ -25389,7 +25398,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="73.5">
+    <row r="9" spans="1:12" ht="81.599999999999994">
       <c r="A9" s="52" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Forgot Password-5]</v>
@@ -25428,7 +25437,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="73.5">
+    <row r="10" spans="1:12" ht="81.599999999999994">
       <c r="A10" s="52" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Forgot Password-6]</v>
@@ -25504,7 +25513,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="52.5">
+    <row r="12" spans="1:12" ht="51">
       <c r="A12" s="51" t="str">
         <f t="shared" ref="A12" si="1">IF(OR(B12&lt;&gt;"",E12&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Forgot Password-8]</v>
@@ -25541,7 +25550,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="31.5">
+    <row r="13" spans="1:12" ht="30.6">
       <c r="A13" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Forgot Password-9]</v>
@@ -25578,7 +25587,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="84">
+    <row r="14" spans="1:12" ht="81.599999999999994">
       <c r="A14" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Forgot Password-10]</v>
@@ -25615,7 +25624,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="42">
+    <row r="15" spans="1:12" ht="40.799999999999997">
       <c r="A15" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Forgot Password-11]</v>
@@ -25652,7 +25661,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="52.5">
+    <row r="16" spans="1:12" ht="61.2">
       <c r="A16" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Forgot Password-12]</v>
@@ -25691,7 +25700,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="42">
+    <row r="17" spans="1:12" ht="40.799999999999997">
       <c r="A17" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Forgot Password-13]</v>
@@ -25730,7 +25739,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="63">
+    <row r="18" spans="1:12" ht="61.2">
       <c r="A18" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Forgot Password-14]</v>
@@ -25767,7 +25776,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="31.5">
+    <row r="19" spans="1:12" ht="30.6">
       <c r="A19" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Forgot Password-15]</v>
@@ -25804,7 +25813,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="31.5">
+    <row r="20" spans="1:12" ht="30.6">
       <c r="A20" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Forgot Password-16]</v>
@@ -25841,7 +25850,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="42">
+    <row r="21" spans="1:12" ht="40.799999999999997">
       <c r="A21" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Forgot Password-17]</v>
@@ -25878,7 +25887,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="31.5">
+    <row r="22" spans="1:12" ht="30.6">
       <c r="A22" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Forgot Password-18]</v>
@@ -25917,7 +25926,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="31.5">
+    <row r="23" spans="1:12" ht="30.6">
       <c r="A23" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Forgot Password-19]</v>
@@ -25952,7 +25961,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="42">
+    <row r="24" spans="1:12" ht="40.799999999999997">
       <c r="A24" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Forgot Password-20]</v>
@@ -25987,7 +25996,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="42">
+    <row r="25" spans="1:12" ht="40.799999999999997">
       <c r="A25" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Forgot Password-21]</v>
@@ -26022,7 +26031,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="52.5">
+    <row r="26" spans="1:12" ht="51">
       <c r="A26" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Forgot Password-22]</v>
@@ -26057,7 +26066,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="31.5">
+    <row r="27" spans="1:12" ht="30.6">
       <c r="A27" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Forgot Password-23]</v>
@@ -26122,18 +26131,18 @@
       <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="22.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="17.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -26235,7 +26244,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="189">
+    <row r="5" spans="1:12" ht="193.8">
       <c r="A5" s="60" t="str">
         <f>IF(OR(B5&lt;&gt;"",E5&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Create Account-1]</v>
@@ -26274,7 +26283,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="42">
+    <row r="6" spans="1:12" ht="40.799999999999997">
       <c r="A6" s="52" t="str">
         <f>IF(OR(B6&lt;&gt;"",E6&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Create Account-2]</v>
@@ -26313,7 +26322,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="42">
+    <row r="7" spans="1:12" ht="40.799999999999997">
       <c r="A7" s="51" t="str">
         <f t="shared" ref="A7:A14" si="0">IF(OR(B7&lt;&gt;"",E7&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Create Account-3]</v>
@@ -26350,7 +26359,7 @@
       </c>
       <c r="L7" s="53"/>
     </row>
-    <row r="8" spans="1:12" ht="42">
+    <row r="8" spans="1:12" ht="40.799999999999997">
       <c r="A8" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Account-4]</v>
@@ -26387,7 +26396,7 @@
       </c>
       <c r="L8" s="53"/>
     </row>
-    <row r="9" spans="1:12" ht="42">
+    <row r="9" spans="1:12" ht="40.799999999999997">
       <c r="A9" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Account-5]</v>
@@ -26424,7 +26433,7 @@
       </c>
       <c r="L9" s="53"/>
     </row>
-    <row r="10" spans="1:12" ht="42">
+    <row r="10" spans="1:12" ht="40.799999999999997">
       <c r="A10" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Account-6]</v>
@@ -26461,7 +26470,7 @@
       </c>
       <c r="L10" s="53"/>
     </row>
-    <row r="11" spans="1:12" ht="42">
+    <row r="11" spans="1:12" ht="40.799999999999997">
       <c r="A11" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Account-7]</v>
@@ -26498,7 +26507,7 @@
       </c>
       <c r="L11" s="53"/>
     </row>
-    <row r="12" spans="1:12" ht="42">
+    <row r="12" spans="1:12" ht="40.799999999999997">
       <c r="A12" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Account-8]</v>
@@ -26535,7 +26544,7 @@
       </c>
       <c r="L12" s="53"/>
     </row>
-    <row r="13" spans="1:12" ht="42">
+    <row r="13" spans="1:12" ht="40.799999999999997">
       <c r="A13" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Account-9]</v>
@@ -26572,7 +26581,7 @@
       </c>
       <c r="L13" s="53"/>
     </row>
-    <row r="14" spans="1:12" ht="42">
+    <row r="14" spans="1:12" ht="40.799999999999997">
       <c r="A14" s="51" t="str">
         <f t="shared" si="0"/>
         <v>[My Family &amp; Me Create Account-10]</v>
@@ -26609,7 +26618,7 @@
       </c>
       <c r="L14" s="53"/>
     </row>
-    <row r="15" spans="1:12" ht="42">
+    <row r="15" spans="1:12" ht="40.799999999999997">
       <c r="A15" s="52" t="str">
         <f>IF(OR(B15&lt;&gt;"",E15&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Create Account-11]</v>
@@ -26648,7 +26657,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="42">
+    <row r="16" spans="1:12" ht="40.799999999999997">
       <c r="A16" s="52" t="str">
         <f t="shared" ref="A16:A50" si="1">IF(OR(B16&lt;&gt;"",E16&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Create Account-12]</v>
@@ -26687,7 +26696,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="42">
+    <row r="17" spans="1:12" ht="40.799999999999997">
       <c r="A17" s="52" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Account-13]</v>
@@ -26726,7 +26735,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="42">
+    <row r="18" spans="1:12" ht="40.799999999999997">
       <c r="A18" s="52" t="str">
         <f t="shared" ref="A18" si="2">IF(OR(B18&lt;&gt;"",E18&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Create Account-14]</v>
@@ -26765,7 +26774,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="42">
+    <row r="19" spans="1:12" ht="40.799999999999997">
       <c r="A19" s="52" t="str">
         <f>IF(OR(B19&lt;&gt;"",E19&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Create Account-15]</v>
@@ -26804,7 +26813,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="73.5">
+    <row r="20" spans="1:12" ht="71.400000000000006">
       <c r="A20" s="52" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Account-16]</v>
@@ -26843,7 +26852,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="73.5">
+    <row r="21" spans="1:12" ht="71.400000000000006">
       <c r="A21" s="52" t="str">
         <f>IF(OR(B21&lt;&gt;"",E21&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Create Account-17]</v>
@@ -26882,7 +26891,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="42">
+    <row r="22" spans="1:12" ht="40.799999999999997">
       <c r="A22" s="52" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Account-18]</v>
@@ -26921,7 +26930,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="42">
+    <row r="23" spans="1:12" ht="40.799999999999997">
       <c r="A23" s="52" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Account-19]</v>
@@ -26960,7 +26969,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="42">
+    <row r="24" spans="1:12" ht="40.799999999999997">
       <c r="A24" s="52" t="str">
         <f>IF(OR(B24&lt;&gt;"",E24&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Create Account-20]</v>
@@ -26999,7 +27008,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="42">
+    <row r="25" spans="1:12" ht="40.799999999999997">
       <c r="A25" s="52" t="str">
         <f>IF(OR(B25&lt;&gt;"",E25&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Create Account-21]</v>
@@ -27038,7 +27047,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="42">
+    <row r="26" spans="1:12" ht="40.799999999999997">
       <c r="A26" s="52" t="str">
         <f>IF(OR(B26&lt;&gt;"",E26&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Create Account-22]</v>
@@ -27077,7 +27086,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="42">
+    <row r="27" spans="1:12" ht="40.799999999999997">
       <c r="A27" s="52" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Account-23]</v>
@@ -27116,7 +27125,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="42">
+    <row r="28" spans="1:12" ht="40.799999999999997">
       <c r="A28" s="52" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Account-24]</v>
@@ -27155,7 +27164,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="42">
+    <row r="29" spans="1:12" ht="40.799999999999997">
       <c r="A29" s="52" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Account-25]</v>
@@ -27194,7 +27203,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="42">
+    <row r="30" spans="1:12" ht="40.799999999999997">
       <c r="A30" s="52" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Account-26]</v>
@@ -27233,7 +27242,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="42">
+    <row r="31" spans="1:12" ht="40.799999999999997">
       <c r="A31" s="51" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Account-27]</v>
@@ -27272,7 +27281,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="42">
+    <row r="32" spans="1:12" ht="40.799999999999997">
       <c r="A32" s="52" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Account-28]</v>
@@ -27311,7 +27320,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="63">
+    <row r="33" spans="1:12" ht="61.2">
       <c r="A33" s="52" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Account-29]</v>
@@ -27350,7 +27359,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="42">
+    <row r="34" spans="1:12" ht="40.799999999999997">
       <c r="A34" s="52" t="str">
         <f t="shared" ref="A34" si="3">IF(OR(B34&lt;&gt;"",E34&lt;&gt;""),"["&amp;TEXT($B$2,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
         <v>[My Family &amp; Me Create Account-30]</v>
@@ -27389,7 +27398,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="52.5">
+    <row r="35" spans="1:12" ht="61.2">
       <c r="A35" s="51" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Account-31]</v>
@@ -27426,7 +27435,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="31.5">
+    <row r="36" spans="1:12" ht="30.6">
       <c r="A36" s="51" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Account-32]</v>
@@ -27463,7 +27472,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="84">
+    <row r="37" spans="1:12" ht="81.599999999999994">
       <c r="A37" s="51" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Account-33]</v>
@@ -27500,7 +27509,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="42">
+    <row r="38" spans="1:12" ht="40.799999999999997">
       <c r="A38" s="51" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Account-34]</v>
@@ -27537,7 +27546,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="73.5">
+    <row r="39" spans="1:12" ht="71.400000000000006">
       <c r="A39" s="51" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Account-35]</v>
@@ -27576,7 +27585,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="42">
+    <row r="40" spans="1:12" ht="40.799999999999997">
       <c r="A40" s="54" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Account-36]</v>
@@ -27615,7 +27624,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="63">
+    <row r="41" spans="1:12" ht="61.2">
       <c r="A41" s="51" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Account-37]</v>
@@ -27652,7 +27661,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="31.5">
+    <row r="42" spans="1:12" ht="30.6">
       <c r="A42" s="54" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Account-38]</v>
@@ -27689,7 +27698,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="31.5">
+    <row r="43" spans="1:12" ht="30.6">
       <c r="A43" s="54" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Account-39]</v>
@@ -27726,7 +27735,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="42">
+    <row r="44" spans="1:12" ht="40.799999999999997">
       <c r="A44" s="54" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Account-40]</v>
@@ -27763,7 +27772,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="31.5">
+    <row r="45" spans="1:12" ht="30.6">
       <c r="A45" s="54" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Account-41]</v>
@@ -27802,7 +27811,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="31.5">
+    <row r="46" spans="1:12" ht="30.6">
       <c r="A46" s="54" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Account-42]</v>
@@ -27837,7 +27846,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="42">
+    <row r="47" spans="1:12" ht="40.799999999999997">
       <c r="A47" s="54" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Account-43]</v>
@@ -27872,7 +27881,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="42">
+    <row r="48" spans="1:12" ht="40.799999999999997">
       <c r="A48" s="54" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Account-44]</v>
@@ -27907,7 +27916,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="52.5">
+    <row r="49" spans="1:12" ht="51">
       <c r="A49" s="54" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Account-45]</v>
@@ -27942,7 +27951,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="42">
+    <row r="50" spans="1:12" ht="40.799999999999997">
       <c r="A50" s="54" t="str">
         <f t="shared" si="1"/>
         <v>[My Family &amp; Me Create Account-46]</v>
